--- a/raw_inputs/buildings.xlsx
+++ b/raw_inputs/buildings.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Forschung\EBC0324_BMWi_BF2016_tos\Students\tos-sre\03_Optimierungsprogramm\raw_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Subsidy-Optimization\raw_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="component_size" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>ClusterA</t>
+  </si>
+  <si>
+    <t>0 1957</t>
+  </si>
+  <si>
+    <t>1958 1978</t>
+  </si>
+  <si>
+    <t>1979 1994</t>
+  </si>
+  <si>
+    <t>ClusterB</t>
   </si>
 </sst>
 </file>
@@ -486,16 +501,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -539,28 +554,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4">
-        <v>199</v>
+        <v>164.76031245068646</v>
       </c>
       <c r="E2">
         <v>3.125</v>
       </c>
       <c r="F2" s="6">
-        <v>0.61299999999999999</v>
+        <v>0.78032195360580714</v>
       </c>
       <c r="G2" s="6">
-        <v>0.77529999999999999</v>
+        <v>1.0151015464730944</v>
       </c>
       <c r="H2" s="6">
-        <v>0.39040000000000002</v>
+        <v>0.4643380306138552</v>
       </c>
       <c r="I2" s="6">
-        <v>0.13150000000000001</v>
+        <v>0.17292468360422913</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -568,28 +583,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4">
-        <v>128.9</v>
+        <v>126.1971262485018</v>
       </c>
       <c r="E3">
         <v>3.125</v>
       </c>
       <c r="F3" s="6">
-        <v>0.58499999999999996</v>
+        <v>0.99917951058729515</v>
       </c>
       <c r="G3" s="6">
-        <v>1.3660000000000001</v>
+        <v>1.0220185377546944</v>
       </c>
       <c r="H3" s="6">
-        <v>0.3211</v>
+        <v>0.69030232920495405</v>
       </c>
       <c r="I3" s="6">
-        <v>0.157</v>
+        <v>0.20630481222532959</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -597,28 +612,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4">
-        <v>275</v>
+        <v>148.68886298215313</v>
       </c>
       <c r="E4">
         <v>3.125</v>
       </c>
       <c r="F4" s="6">
-        <v>0.70630000000000004</v>
+        <v>0.70512304260218761</v>
       </c>
       <c r="G4" s="6">
-        <v>0.77659999999999996</v>
+        <v>1.0936118192285551</v>
       </c>
       <c r="H4" s="6">
-        <v>0.47821999999999998</v>
+        <v>0.47570701208980998</v>
       </c>
       <c r="I4" s="6">
-        <v>0.17299999999999999</v>
+        <v>0.17361289579735179</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -626,28 +641,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="4">
-        <v>101</v>
+        <v>530.32074796747963</v>
       </c>
       <c r="E5">
         <v>3.125</v>
       </c>
       <c r="F5" s="6">
-        <v>1.1299999999999999</v>
+        <v>0.44314220650406505</v>
       </c>
       <c r="G5" s="6">
-        <v>1.0612999999999999</v>
+        <v>0.71921586016260153</v>
       </c>
       <c r="H5" s="6">
-        <v>0.55900000000000005</v>
+        <v>0.38969926991869924</v>
       </c>
       <c r="I5" s="6">
-        <v>0.16600000000000001</v>
+        <v>0.1730681804878049</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -655,10 +670,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="4">
         <v>110.2</v>
@@ -684,10 +699,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="D7" s="4">
         <v>157.5</v>
@@ -709,1032 +724,46 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4">
-        <v>196</v>
-      </c>
-      <c r="E8">
-        <v>3.125</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.46666999999999997</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.125</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4">
-        <v>136.55000000000001</v>
-      </c>
-      <c r="E9">
-        <v>3.125</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.82130000000000003</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1.409</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0.502</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.19800000000000001</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4">
-        <v>110.8</v>
-      </c>
-      <c r="E10">
-        <v>3.125</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1.038</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0.26600000000000001</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4">
-        <v>133.19999999999999</v>
-      </c>
-      <c r="E11">
-        <v>3.125</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.58435000000000004</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1.2849999999999999</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.1925</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="4">
-        <v>160.4</v>
-      </c>
-      <c r="E12">
-        <v>3.125</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.70535000000000003</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1.2170000000000001</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0.57647000000000004</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0.22459999999999999</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4">
-        <v>160.4</v>
-      </c>
-      <c r="E13">
-        <v>3.125</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.70535000000000003</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1.2170000000000001</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0.57647000000000004</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0.22459999999999999</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="4">
-        <v>87.24</v>
-      </c>
-      <c r="E14">
-        <v>3.125</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.77659999999999996</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0.1885</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4">
-        <v>102.5</v>
-      </c>
-      <c r="E15">
-        <v>3.125</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0.19026999999999999</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="4">
-        <v>136</v>
-      </c>
-      <c r="E16">
-        <v>3.125</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.54132999999999998</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.5413</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0.31130000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="4">
-        <v>106.7</v>
-      </c>
-      <c r="E17">
-        <v>3.125</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0.39487</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.3453</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0.39487</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0.11538</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="4">
-        <v>96.641999999999996</v>
-      </c>
-      <c r="E18">
-        <v>3.125</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0.57452999999999999</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0.50660000000000005</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0.57450000000000001</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0.22075</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="4">
-        <v>98.43</v>
-      </c>
-      <c r="E19">
-        <v>3.125</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0.90369999999999995</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0.501</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0.67593000000000003</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0.18795999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="4">
-        <v>116</v>
-      </c>
-      <c r="E20">
-        <v>3.125</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0.50702999999999998</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0.39766000000000001</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0.43830000000000002</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0.14688000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="4">
-        <v>135.30000000000001</v>
-      </c>
-      <c r="E21">
-        <v>3.125</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0.51946000000000003</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0.39665</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0.34832000000000002</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0.15034</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="4">
-        <v>138.1</v>
-      </c>
-      <c r="E22">
-        <v>3.125</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0.92566000000000004</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0.46512999999999999</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0.23882</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="4">
-        <v>167.5</v>
-      </c>
-      <c r="E23">
-        <v>3.125</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0.38622000000000001</v>
-      </c>
-      <c r="G23" s="6">
-        <v>1.0561</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0.34592000000000001</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0.14337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="4">
-        <v>167.5</v>
-      </c>
-      <c r="E24">
-        <v>3.125</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0.38622000000000001</v>
-      </c>
-      <c r="G24" s="6">
-        <v>1.0561</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0.34592000000000001</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0.14337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="4">
-        <v>615.90099999999995</v>
-      </c>
-      <c r="E25">
-        <v>3.125</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0.41965000000000002</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1.1067899999999999</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0.18434</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0.15805</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="4">
-        <v>284</v>
-      </c>
-      <c r="E26">
-        <v>3.125</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0.32949000000000001</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0.46794999999999998</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0.32949000000000001</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0.1734</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="4">
-        <v>350</v>
-      </c>
-      <c r="E27">
-        <v>3.125</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0.49249999999999999</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0.84545000000000003</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0.33090999999999998</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0.18493999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="4">
-        <v>574.79999999999995</v>
-      </c>
-      <c r="E28">
-        <v>3.125</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0.56171000000000004</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0.73101000000000005</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0.56171000000000004</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0.15617</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="4">
-        <v>2844.61</v>
-      </c>
-      <c r="E29">
-        <v>3.125</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0.31035000000000001</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0.65164999999999995</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0.31035000000000001</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0.16219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="4">
-        <v>426.01</v>
-      </c>
-      <c r="E30">
-        <v>3.125</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0.46205000000000002</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0.71641999999999995</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0.46205000000000002</v>
-      </c>
-      <c r="I30" s="6">
-        <v>0.17335</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="4">
-        <v>594.5</v>
-      </c>
-      <c r="E31">
-        <v>3.125</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0.37966</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0.68364000000000003</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0.37966</v>
-      </c>
-      <c r="I31" s="6">
-        <v>0.15198999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="4">
-        <v>707.4</v>
-      </c>
-      <c r="E32">
-        <v>3.125</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0.32057000000000002</v>
-      </c>
-      <c r="G32" s="6">
-        <v>0.99589000000000005</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0.32057000000000002</v>
-      </c>
-      <c r="I32" s="6">
-        <v>0.20694000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="4">
-        <v>759</v>
-      </c>
-      <c r="E33">
-        <v>3.125</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0.33976000000000001</v>
-      </c>
-      <c r="G33" s="6">
-        <v>0.83328999999999998</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0.33976000000000001</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0.19497</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1991</v>
-      </c>
-      <c r="E34">
-        <v>3.125</v>
-      </c>
-      <c r="F34" s="6">
-        <v>0.26849000000000001</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0.77534000000000003</v>
-      </c>
-      <c r="H34" s="6">
-        <v>0.28288000000000002</v>
-      </c>
-      <c r="I34" s="6">
-        <v>0.14096</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1170</v>
-      </c>
-      <c r="E35">
-        <v>3.125</v>
-      </c>
-      <c r="F35" s="6">
-        <v>0.24604999999999999</v>
-      </c>
-      <c r="G35" s="6">
-        <v>0.91432999999999998</v>
-      </c>
-      <c r="H35" s="6">
-        <v>0.24604999999999999</v>
-      </c>
-      <c r="I35" s="6">
-        <v>0.18667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1170</v>
-      </c>
-      <c r="E36">
-        <v>3.125</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0.24604999999999999</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0.91432999999999998</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0.24604999999999999</v>
-      </c>
-      <c r="I36" s="6">
-        <v>0.18667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="4">
-        <v>754</v>
-      </c>
-      <c r="E37">
-        <v>3.125</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0.27961000000000003</v>
-      </c>
-      <c r="G37" s="6">
-        <v>0.36840000000000001</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0.19747000000000001</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0.16428999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1349.11</v>
-      </c>
-      <c r="E38">
-        <v>3.125</v>
-      </c>
-      <c r="F38" s="6">
-        <v>0.25889000000000001</v>
-      </c>
-      <c r="G38" s="6">
-        <v>0.83826999999999996</v>
-      </c>
-      <c r="H38" s="6">
-        <v>0.26657999999999998</v>
-      </c>
-      <c r="I38" s="6">
-        <v>0.18767</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1457</v>
-      </c>
-      <c r="E39">
-        <v>3.125</v>
-      </c>
-      <c r="F39" s="6">
-        <v>0.22051999999999999</v>
-      </c>
-      <c r="G39" s="6">
-        <v>0.85838999999999999</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0.22051999999999999</v>
-      </c>
-      <c r="I39" s="6">
-        <v>0.18396999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="4">
-        <v>3534</v>
-      </c>
-      <c r="E40">
-        <v>3.125</v>
-      </c>
-      <c r="F40" s="6">
-        <v>0.12339</v>
-      </c>
-      <c r="G40" s="6">
-        <v>0.83550000000000002</v>
-      </c>
-      <c r="H40" s="6">
-        <v>0.11814</v>
-      </c>
-      <c r="I40" s="6">
-        <v>0.17674000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="4">
-        <v>3020</v>
-      </c>
-      <c r="E41">
-        <v>3.125</v>
-      </c>
-      <c r="F41" s="6">
-        <v>0.16255</v>
-      </c>
-      <c r="G41" s="6">
-        <v>0.64117999999999997</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0.16255</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0.16406000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1745,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>

--- a/raw_inputs/buildings.xlsx
+++ b/raw_inputs/buildings.xlsx
@@ -504,7 +504,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +556,7 @@
       <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="4">
@@ -585,7 +585,7 @@
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="4">
@@ -614,7 +614,7 @@
       <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="4">
@@ -676,22 +676,22 @@
         <v>32</v>
       </c>
       <c r="D6" s="4">
-        <v>110.2</v>
+        <v>2254.1720857936784</v>
       </c>
       <c r="E6">
         <v>3.125</v>
       </c>
       <c r="F6" s="6">
-        <v>1.1395999999999999</v>
+        <v>0.30323662035428967</v>
       </c>
       <c r="G6" s="6">
-        <v>1.2390000000000001</v>
+        <v>0.68502384508509895</v>
       </c>
       <c r="H6" s="6">
-        <v>0.95699999999999996</v>
+        <v>0.30252178881556097</v>
       </c>
       <c r="I6" s="6">
-        <v>0.224</v>
+        <v>0.16668666724557141</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -705,22 +705,22 @@
         <v>33</v>
       </c>
       <c r="D7" s="4">
-        <v>157.5</v>
+        <v>1106.4591367359799</v>
       </c>
       <c r="E7">
         <v>3.125</v>
       </c>
       <c r="F7" s="6">
-        <v>1.0583800000000001</v>
+        <v>0.3100912728418399</v>
       </c>
       <c r="G7" s="6">
-        <v>1.0266</v>
+        <v>0.8228516446124764</v>
       </c>
       <c r="H7" s="6">
-        <v>0.4526</v>
+        <v>0.3100912728418399</v>
       </c>
       <c r="I7" s="6">
-        <v>0.19769999999999999</v>
+        <v>0.17577443919344674</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
